--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -6531,7 +6531,7 @@
   </si>
   <si>
     <t xml:space="preserve">Modded by &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;, &lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt;, &lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt; &amp; &lt;color=#FCCE03FF&gt;Mallöris&lt;/color&gt;_x005F_x000D_
-Design by &lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;, Customization by &lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt;</t>
+Design by &lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;, Customization by &lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt; &amp; Haoming</t>
   </si>
   <si>
     <r>
@@ -6644,6 +6644,16 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">、はおみん</t>
     </r>
   </si>
   <si>
@@ -6653,7 +6663,7 @@
     <t xml:space="preserve">&lt;size=80%&gt;Modded by &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;, &lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt;_x005F_x000D_
 &lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt; &amp; &lt;color=#FCCE03FF&gt;Mallöris&lt;/color&gt;_x005F_x000D_
 Button design by &lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;_x005F_x000D_
-Customization by &lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt;&lt;/size&gt;</t>
+Customization by &lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt; &amp; Haoming&lt;/size&gt;</t>
   </si>
   <si>
     <r>
@@ -6747,14 +6757,34 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt;&lt;/size&gt;</t>
+      <t xml:space="preserve">&lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">、はおみん</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/size&gt;</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">creditsVersion</t>
   </si>
   <si>
-    <t xml:space="preserve">GM Edition v{0}</t>
+    <t xml:space="preserve">GM Edition Customization by Haoming v{0}</t>
   </si>
   <si>
     <r>
@@ -6775,7 +6805,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">エディション </t>
+      <t xml:space="preserve">エディション カスタマイズ by はおみん </t>
     </r>
     <r>
       <rPr>
@@ -13963,11 +13993,11 @@
   </sheetPr>
   <dimension ref="A1:Q759"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B728" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M738" activeCellId="0" sqref="M738"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B703" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J721" activeCellId="0" sqref="J721"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.89453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="71.49"/>
@@ -19433,7 +19463,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="720" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="720" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="1" t="s">
         <v>1343</v>
       </c>
@@ -19444,7 +19474,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="721" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="721" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="1" t="s">
         <v>1346</v>
       </c>
@@ -19455,7 +19485,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="722" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="1" t="s">
         <v>1349</v>
       </c>
@@ -19765,7 +19795,7 @@
       <selection pane="topLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.89453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="71.49"/>
@@ -20347,13 +20377,13 @@
   </sheetPr>
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.89453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="58.47"/>
   </cols>
@@ -20804,9 +20834,9 @@
       <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.89453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.73"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21093,11 +21123,11 @@
   </sheetPr>
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.89453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.11"/>
@@ -21456,7 +21486,7 @@
       <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.89453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.11"/>
@@ -21721,7 +21751,7 @@
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.89453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.28"/>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -382,10 +382,10 @@
     <t xml:space="preserve">trapperExtensionTime</t>
   </si>
   <si>
-    <t xml:space="preserve">Visible time of trap after set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">設置後の目視可能時間</t>
+    <t xml:space="preserve">time to activate trap after placed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">設置後トラップが有効になるまでの時間</t>
   </si>
   <si>
     <t xml:space="preserve">trapperCooldown</t>
@@ -16376,11 +16376,11 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M48" activeCellId="0" sqref="M48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M37" activeCellId="0" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="80.3"/>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -7337,22 +7337,22 @@
     <t xml:space="preserve">Restrict Cameras time</t>
   </si>
   <si>
-    <t xml:space="preserve">alwaysReduceKillCooldown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Always reduce kill cooldown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">キルクールダウンを常に減少させる</t>
+    <t xml:space="preserve">alwaysReduceCooldown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Always reduce cooldown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クールダウンを常に減少させる</t>
   </si>
   <si>
     <t xml:space="preserve">exceptInVent</t>
   </si>
   <si>
-    <t xml:space="preserve">Dont reduce kill cooldown  In vent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ベント内では減少させない</t>
+    <t xml:space="preserve">Stop reducing cooldown  In vent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ベント内では減少を止める</t>
   </si>
   <si>
     <t xml:space="preserve">disableVentAnimation</t>
@@ -29678,11 +29678,11 @@
   </sheetPr>
   <dimension ref="A1:Q125"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B110" activeCellId="0" sqref="B110"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M96" activeCellId="0" sqref="M96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.33984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.3125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="80.3"/>
